--- a/data/ClinicaGliomasMayo2025.xlsx
+++ b/data/ClinicaGliomasMayo2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Downloads\Gliomas analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JF\Documents\mygits\glioma\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584CF34-16B8-4E8E-81FB-A9EE92566213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClinicaFinal" sheetId="3" r:id="rId1"/>
@@ -429,9 +430,6 @@
     <t>TCGA-76-4931</t>
   </si>
   <si>
-    <t>Age_years_at_diagnosis)</t>
-  </si>
-  <si>
     <t>TCGACode</t>
   </si>
   <si>
@@ -490,12 +488,15 @@
   </si>
   <si>
     <t>tumor_descriptor_samples</t>
+  </si>
+  <si>
+    <t>Age_years_at_diagnosis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,33 +835,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -872,25 +873,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
         <v>154</v>
       </c>
-      <c r="K1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -898,7 +899,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -925,16 +926,16 @@
         <v>448</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -942,7 +943,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -969,16 +970,16 @@
         <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -986,7 +987,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1013,16 +1014,16 @@
         <v>618</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1057,16 +1058,16 @@
         <v>1448</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1101,16 +1102,16 @@
         <v>394</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1145,16 +1146,16 @@
         <v>771</v>
       </c>
       <c r="L7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1189,16 +1190,16 @@
         <v>737</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1233,16 +1234,16 @@
         <v>362</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1277,16 +1278,16 @@
         <v>313</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1321,16 +1322,16 @@
         <v>375</v>
       </c>
       <c r="L11" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
         <v>149</v>
       </c>
-      <c r="M11" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1365,16 +1366,16 @@
         <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1409,16 +1410,16 @@
         <v>329</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1453,16 +1454,16 @@
         <v>598</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1497,16 +1498,16 @@
         <v>399</v>
       </c>
       <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
         <v>149</v>
       </c>
-      <c r="M15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1541,16 +1542,16 @@
         <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1585,16 +1586,16 @@
         <v>2126</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1629,16 +1630,16 @@
         <v>828</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1673,16 +1674,16 @@
         <v>317</v>
       </c>
       <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" t="s">
         <v>149</v>
       </c>
-      <c r="M19" t="s">
-        <v>148</v>
-      </c>
-      <c r="N19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1717,16 +1718,16 @@
         <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1761,16 +1762,16 @@
         <v>360</v>
       </c>
       <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" t="s">
         <v>149</v>
       </c>
-      <c r="M21" t="s">
-        <v>148</v>
-      </c>
-      <c r="N21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1805,16 +1806,16 @@
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1849,16 +1850,16 @@
         <v>405</v>
       </c>
       <c r="L23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1893,16 +1894,16 @@
         <v>384</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1937,16 +1938,16 @@
         <v>175</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1981,16 +1982,16 @@
         <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -2025,16 +2026,16 @@
         <v>64</v>
       </c>
       <c r="L27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s">
         <v>145</v>
       </c>
-      <c r="M27" t="s">
-        <v>146</v>
-      </c>
       <c r="N27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2069,16 +2070,16 @@
         <v>432</v>
       </c>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -2113,16 +2114,16 @@
         <v>803</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2157,16 +2158,16 @@
         <v>1426</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2201,16 +2202,16 @@
         <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -2245,16 +2246,16 @@
         <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -2289,16 +2290,16 @@
         <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2333,16 +2334,16 @@
         <v>28</v>
       </c>
       <c r="L34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -2377,16 +2378,16 @@
         <v>632</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -2421,16 +2422,16 @@
         <v>414</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2465,16 +2466,16 @@
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -2509,16 +2510,16 @@
         <v>380</v>
       </c>
       <c r="L38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -2553,16 +2554,16 @@
         <v>150</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -2597,16 +2598,16 @@
         <v>537</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -2641,16 +2642,16 @@
         <v>382</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -2685,16 +2686,16 @@
         <v>506</v>
       </c>
       <c r="L42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -2729,16 +2730,16 @@
         <v>133</v>
       </c>
       <c r="L43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -2773,16 +2774,16 @@
         <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -2817,16 +2818,16 @@
         <v>108</v>
       </c>
       <c r="L45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2861,16 +2862,16 @@
         <v>254</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -2905,16 +2906,16 @@
         <v>138</v>
       </c>
       <c r="L47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -2949,16 +2950,16 @@
         <v>83</v>
       </c>
       <c r="L48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -2993,16 +2994,16 @@
         <v>114</v>
       </c>
       <c r="L49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -3037,16 +3038,16 @@
         <v>548</v>
       </c>
       <c r="L50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -3081,16 +3082,16 @@
         <v>448</v>
       </c>
       <c r="L51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -3125,16 +3126,16 @@
         <v>395</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -3169,16 +3170,16 @@
         <v>1062</v>
       </c>
       <c r="L53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -3213,16 +3214,16 @@
         <v>323</v>
       </c>
       <c r="L54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -3257,16 +3258,16 @@
         <v>333</v>
       </c>
       <c r="L55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -3301,16 +3302,16 @@
         <v>1062</v>
       </c>
       <c r="L56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -3345,16 +3346,16 @@
         <v>442</v>
       </c>
       <c r="L57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -3389,16 +3390,16 @@
         <v>454</v>
       </c>
       <c r="L58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -3433,16 +3434,16 @@
         <v>98</v>
       </c>
       <c r="L59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -3477,16 +3478,16 @@
         <v>460</v>
       </c>
       <c r="L60" t="s">
+        <v>148</v>
+      </c>
+      <c r="M60" t="s">
+        <v>145</v>
+      </c>
+      <c r="N60" t="s">
         <v>149</v>
       </c>
-      <c r="M60" t="s">
-        <v>146</v>
-      </c>
-      <c r="N60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -3521,16 +3522,16 @@
         <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -3565,16 +3566,16 @@
         <v>68</v>
       </c>
       <c r="L62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -3609,16 +3610,16 @@
         <v>342</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -3653,16 +3654,16 @@
         <v>419</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -3697,16 +3698,16 @@
         <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -3741,16 +3742,16 @@
         <v>880</v>
       </c>
       <c r="L66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -3785,16 +3786,16 @@
         <v>485</v>
       </c>
       <c r="L67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -3829,16 +3830,16 @@
         <v>975</v>
       </c>
       <c r="L68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -3873,16 +3874,16 @@
         <v>543</v>
       </c>
       <c r="L69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -3917,16 +3918,16 @@
         <v>232</v>
       </c>
       <c r="L70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -3961,16 +3962,16 @@
         <v>532</v>
       </c>
       <c r="L71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -4005,16 +4006,16 @@
         <v>419</v>
       </c>
       <c r="L72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -4049,16 +4050,16 @@
         <v>119</v>
       </c>
       <c r="L73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -4093,16 +4094,16 @@
         <v>883</v>
       </c>
       <c r="L74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -4137,16 +4138,16 @@
         <v>666</v>
       </c>
       <c r="L75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4181,16 +4182,16 @@
         <v>141</v>
       </c>
       <c r="L76" t="s">
+        <v>148</v>
+      </c>
+      <c r="M76" t="s">
+        <v>147</v>
+      </c>
+      <c r="N76" t="s">
         <v>149</v>
       </c>
-      <c r="M76" t="s">
-        <v>148</v>
-      </c>
-      <c r="N76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -4225,16 +4226,16 @@
         <v>772</v>
       </c>
       <c r="L77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -4269,16 +4270,16 @@
         <v>385</v>
       </c>
       <c r="L78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4313,16 +4314,16 @@
         <v>148</v>
       </c>
       <c r="L79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4357,16 +4358,16 @@
         <v>5</v>
       </c>
       <c r="L80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -4401,16 +4402,16 @@
         <v>124</v>
       </c>
       <c r="L81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4445,16 +4446,16 @@
         <v>455</v>
       </c>
       <c r="L82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4489,16 +4490,16 @@
         <v>270</v>
       </c>
       <c r="L83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -4533,16 +4534,16 @@
         <v>577</v>
       </c>
       <c r="L84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -4577,16 +4578,16 @@
         <v>154</v>
       </c>
       <c r="L85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4621,16 +4622,16 @@
         <v>505</v>
       </c>
       <c r="L86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -4665,16 +4666,16 @@
         <v>300</v>
       </c>
       <c r="L87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -4709,16 +4710,16 @@
         <v>1233</v>
       </c>
       <c r="L88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -4753,16 +4754,16 @@
         <v>648</v>
       </c>
       <c r="L89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -4797,16 +4798,16 @@
         <v>427</v>
       </c>
       <c r="L90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -4841,16 +4842,16 @@
         <v>550</v>
       </c>
       <c r="L91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -4885,16 +4886,16 @@
         <v>489</v>
       </c>
       <c r="L92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N92" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -4929,16 +4930,16 @@
         <v>231</v>
       </c>
       <c r="L93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -4973,16 +4974,16 @@
         <v>87</v>
       </c>
       <c r="L94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -5017,16 +5018,16 @@
         <v>480</v>
       </c>
       <c r="L95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -5061,16 +5062,16 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -5105,16 +5106,16 @@
         <v>454</v>
       </c>
       <c r="L97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -5149,16 +5150,16 @@
         <v>343</v>
       </c>
       <c r="L98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -5193,16 +5194,16 @@
         <v>544</v>
       </c>
       <c r="L99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -5234,16 +5235,16 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -5278,16 +5279,16 @@
         <v>335</v>
       </c>
       <c r="L101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -5322,16 +5323,16 @@
         <v>157</v>
       </c>
       <c r="L102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -5366,16 +5367,16 @@
         <v>388</v>
       </c>
       <c r="L103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5410,16 +5411,16 @@
         <v>468</v>
       </c>
       <c r="L104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>72</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -5454,16 +5455,16 @@
         <v>36</v>
       </c>
       <c r="L105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -5498,16 +5499,16 @@
         <v>142</v>
       </c>
       <c r="L106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -5542,16 +5543,16 @@
         <v>485</v>
       </c>
       <c r="L107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -5586,16 +5587,16 @@
         <v>224</v>
       </c>
       <c r="L108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -5630,16 +5631,16 @@
         <v>269</v>
       </c>
       <c r="L109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -5674,16 +5675,16 @@
         <v>766</v>
       </c>
       <c r="L110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -5718,16 +5719,16 @@
         <v>585</v>
       </c>
       <c r="L111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -5762,16 +5763,16 @@
         <v>26</v>
       </c>
       <c r="L112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -5806,16 +5807,16 @@
         <v>406</v>
       </c>
       <c r="L113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -5850,16 +5851,16 @@
         <v>360</v>
       </c>
       <c r="L114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>63</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -5894,16 +5895,16 @@
         <v>6</v>
       </c>
       <c r="L115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>59</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5938,16 +5939,16 @@
         <v>460</v>
       </c>
       <c r="L116" t="s">
+        <v>144</v>
+      </c>
+      <c r="M116" t="s">
         <v>145</v>
       </c>
-      <c r="M116" t="s">
-        <v>146</v>
-      </c>
       <c r="N116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -5982,16 +5983,16 @@
         <v>146</v>
       </c>
       <c r="L117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>68</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -6026,16 +6027,16 @@
         <v>138</v>
       </c>
       <c r="L118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>85</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -6070,16 +6071,16 @@
         <v>94</v>
       </c>
       <c r="L119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -6114,16 +6115,16 @@
         <v>111</v>
       </c>
       <c r="L120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -6158,13 +6159,13 @@
         <v>279</v>
       </c>
       <c r="L121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
